--- a/Arizona/WaterAllocation/groundwaterAZ_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Arizona/WaterAllocation/groundwaterAZ_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61FF487-C723-43AC-9A27-43A3FA093DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC51B4A-532F-44CA-824D-96C4C15DC0C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -841,9 +841,6 @@
   </si>
   <si>
     <t>AZwr_WS + counter</t>
-  </si>
-  <si>
-    <t>EPSG:4236</t>
   </si>
   <si>
     <t>GWSI Sites</t>
@@ -924,6 +921,15 @@
   </si>
   <si>
     <t>Is this Consumptive Use?</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1668,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1924,6 +1930,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2340,12 +2349,12 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2470,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
@@ -2489,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3035,7 +3044,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3063,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
@@ -3222,7 +3231,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3250,7 +3259,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3732,7 +3741,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>38</v>
@@ -3769,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3869,7 +3878,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3962,10 +3971,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
@@ -3988,8 +3997,8 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>267</v>
+      <c r="E8" s="25">
+        <v>4236</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>38</v>
@@ -4137,11 +4146,11 @@
         <v>38</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="18" t="s">
@@ -4165,11 +4174,11 @@
         <v>38</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="18">
@@ -4308,10 +4317,10 @@
         <v>38</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="18">
@@ -4368,10 +4377,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="18" t="s">
@@ -4452,10 +4461,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="A20:B36"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4712,7 +4721,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="46"/>
@@ -4768,7 +4777,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
@@ -4824,7 +4833,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="43"/>
@@ -5111,10 +5120,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>38</v>
@@ -5175,10 +5184,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
@@ -5207,10 +5216,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
@@ -5268,7 +5277,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>38</v>
@@ -5300,7 +5309,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>38</v>
@@ -5335,10 +5344,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>38</v>
@@ -5399,10 +5408,10 @@
         <v>38</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>38</v>
@@ -5588,7 +5597,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>38</v>
@@ -5727,35 +5736,29 @@
       </c>
     </row>
     <row r="42" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="76" t="s">
-        <v>89</v>
+      <c r="A42" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="D42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="J42" s="63" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -5764,18 +5767,18 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="76" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>252</v>
@@ -5789,54 +5792,60 @@
       <c r="H43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
+      <c r="I43" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="76" t="s">
         <v>243</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77" t="s">
-        <v>244</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>15</v>
@@ -5848,30 +5857,36 @@
         <v>20</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="79"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="63"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="G45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>38</v>
+      <c r="D46" s="53" t="s">
+        <v>20</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>252</v>
@@ -5882,18 +5897,44 @@
       <c r="G46" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="18" t="s">
+      <c r="H46" s="79"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J47" s="63" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="75"/>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="75"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
